--- a/data/administracion_de_tribunales/OP_LEY148FinalEmitidas.xlsx
+++ b/data/administracion_de_tribunales/OP_LEY148FinalEmitidas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlando.hernandez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62B55D6-8D78-48BD-A6B2-7D03053B4412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2021" sheetId="4" r:id="rId1"/>
@@ -17,21 +18,47 @@
     <sheet name="2022-2023" sheetId="2" r:id="rId3"/>
     <sheet name="2023-2024" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
   <si>
     <t>Región</t>
   </si>
   <si>
+    <t>Cantidad de órdenes finales</t>
+  </si>
+  <si>
+    <t>Delito de agresión sexual en órdenes finales emitidas</t>
+  </si>
+  <si>
+    <t>Delitos de acoso sexual en órdenes finales emitidas</t>
+  </si>
+  <si>
+    <t>Delitos de actos lascivos en órdenes finales emitidas</t>
+  </si>
+  <si>
+    <t>Delito de incesto en órdenes finales emitidas</t>
+  </si>
+  <si>
     <t>Aguadilla</t>
   </si>
   <si>
@@ -72,28 +99,13 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Cantidad de órdenes finales</t>
-  </si>
-  <si>
-    <t>Delito de agresión sexual en órdenes finales emitidas</t>
-  </si>
-  <si>
-    <t>Delitos de acoso sexual en órdenes finales emitidas</t>
-  </si>
-  <si>
-    <t>Delitos de actos lascivos en órdenes finales emitidas</t>
-  </si>
-  <si>
-    <t>Delito de incesto en órdenes finales emitidas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,11 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,12 +424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -428,225 +441,235 @@
     <col min="6" max="6" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
+      <c r="B15">
         <f>SUM(B2:B11)</f>
         <v>63</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <f>SUM(C2:C11)</f>
         <v>32</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <f>SUM(D2:D11)</f>
         <v>24</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <f>SUM(E2:E11)</f>
         <v>31</v>
       </c>
-      <c r="F12">
+      <c r="F15">
         <f>SUM(F2:F11)</f>
         <v>5</v>
       </c>
@@ -657,14 +680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
@@ -673,29 +696,29 @@
     <col min="6" max="6" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -713,9 +736,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -730,9 +753,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -747,9 +770,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -764,9 +787,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -781,9 +804,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -801,9 +824,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -815,9 +838,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -835,9 +858,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -849,9 +872,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -866,9 +889,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -886,9 +909,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -903,9 +926,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -923,9 +946,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <f>SUM(B2:B14)</f>
@@ -954,14 +977,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -971,29 +994,29 @@
     <col min="6" max="6" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1002,9 +1025,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1013,9 +1036,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1027,9 +1050,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>17</v>
@@ -1044,9 +1067,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1058,9 +1081,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -1078,9 +1101,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1095,9 +1118,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1106,9 +1129,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1123,14 +1146,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -1142,9 +1165,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1156,9 +1179,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -1173,9 +1196,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <f>SUM(B2:B14)</f>
@@ -1204,14 +1227,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1221,29 +1244,29 @@
     <col min="6" max="6" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1261,9 +1284,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1275,9 +1298,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1295,9 +1318,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -1315,9 +1338,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1329,9 +1352,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1346,9 +1369,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1363,9 +1386,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1377,9 +1400,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1391,9 +1414,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1408,9 +1431,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>21</v>
@@ -1428,9 +1451,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1442,9 +1465,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -1462,9 +1485,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <f>SUM(B2:B14)</f>

--- a/data/administracion_de_tribunales/OP_LEY148FinalEmitidas.xlsx
+++ b/data/administracion_de_tribunales/OP_LEY148FinalEmitidas.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlando.hernandez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62B55D6-8D78-48BD-A6B2-7D03053B4412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8508998B-B16F-4E44-BE74-7600FC9D5C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2021" sheetId="4" r:id="rId1"/>
     <sheet name="2021-2022" sheetId="1" r:id="rId2"/>
     <sheet name="2022-2023" sheetId="2" r:id="rId3"/>
     <sheet name="2023-2024" sheetId="3" r:id="rId4"/>
+    <sheet name="2024-2025" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>Región</t>
   </si>
@@ -105,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +118,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -141,10 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1513,4 +1529,253 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3794E50D-B6C2-4A62-B0A4-A823E09C29A8}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/administracion_de_tribunales/OP_LEY148FinalEmitidas.xlsx
+++ b/data/administracion_de_tribunales/OP_LEY148FinalEmitidas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlando.hernandez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Documents\ViolenciaGeneroPR\data\administracion_de_tribunales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8508998B-B16F-4E44-BE74-7600FC9D5C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF145359-D5D2-4BC1-80FD-9BD0C9B20465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2021" sheetId="4" r:id="rId1"/>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +159,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,17 +447,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -644,28 +644,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -703,16 +703,16 @@
       <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -786,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -803,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -962,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1000,17 +1000,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1162,12 +1162,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,17 +1250,17 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1536,12 +1536,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1755,23 +1755,28 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
+        <f>SUM(B2:B14)</f>
         <v>29</v>
       </c>
       <c r="C15" s="3">
-        <v>9</v>
+        <f t="shared" ref="C15:F15" si="0">SUM(C2:C14)</f>
+        <v>11</v>
       </c>
       <c r="D15" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E15" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F15" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
